--- a/Autotest/任务设计&检验逻辑.xlsx
+++ b/Autotest/任务设计&检验逻辑.xlsx
@@ -1,105 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wudel\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A3FCB5-298F-490D-8375-AB71AFDB4389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>指令名</t>
-  </si>
-  <si>
-    <t>检验方法（用中文简单描述）</t>
-  </si>
-  <si>
-    <t>对应的检验函数</t>
-  </si>
-  <si>
-    <t>点击 “酒店” 图标，进入酒店预订页面。</t>
-  </si>
-  <si>
-    <t>check_click_hotel()</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查click_history.json中的最新记录是否为 “点击‘酒店’图标并进入酒店预订页面” 的记录。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="9.75"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="9.75"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <family val="2"/>
       <color rgb="FF000000"/>
+      <sz val="10"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -152,40 +121,198 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF1F2329"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF1F2329"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF1F2329"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -485,84 +612,884 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="39" customWidth="1"/>
-    <col min="4" max="4" width="78" customWidth="1"/>
+    <col width="7" customWidth="1" style="2" min="1" max="1"/>
+    <col width="47.88671875" customWidth="1" style="2" min="2" max="2"/>
+    <col width="43.21875" customWidth="1" style="2" min="3" max="3"/>
+    <col width="42.6640625" customWidth="1" style="2" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="25.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>指令名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>检验方法</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>对应的检验函数</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="34.8" customHeight="1" s="2">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>点击 "酒店" 图标，进入酒店预订页面。</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">检查click_history.json中的点击记录是否为 "点击'酒店'图标并进入酒店预订页面" </t>
+        </is>
+      </c>
+      <c r="D2" s="12" t="inlineStr">
+        <is>
+          <t>check_click_hotel()</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="n"/>
+    </row>
+    <row r="3" ht="33" customHeight="1" s="2">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>点击 "机票" 图标，进入机票预订界面。</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">检查click_history.json中的点击记录是否为 "点击'机票'图标并进入机票预订页面" </t>
+        </is>
+      </c>
+      <c r="D3" s="13" t="inlineStr">
+        <is>
+          <t>check_click_flight()</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="n"/>
+    </row>
+    <row r="4" ht="35.4" customHeight="1" s="2">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>点击 "火车票" 图标，进入火车票预订页面。</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">检查click_history.json中的点击记录是否为 "点击'火车票'图标并进入火车票预订页面" </t>
+        </is>
+      </c>
+      <c r="D4" s="13" t="inlineStr">
+        <is>
+          <t>check_click_train()</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="n"/>
+    </row>
+    <row r="5" ht="37.8" customHeight="1" s="2">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>点击"消息"按钮，进入消息页面</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">检查click_history.json中的点击记录是否为 "点击'消息'按钮并进入消息页面" </t>
+        </is>
+      </c>
+      <c r="D5" s="13" t="inlineStr">
+        <is>
+          <t>check_click_message()</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="n"/>
+    </row>
+    <row r="6" ht="32.4" customHeight="1" s="2">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>点击"行程"按钮，进入行程页面</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">检查click_history.json中的点击记录是否为 "点击'行程'按钮并进入行程页面" </t>
+        </is>
+      </c>
+      <c r="D6" s="13" t="inlineStr">
+        <is>
+          <t>check_click_itinerary()</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="n"/>
+    </row>
+    <row r="7" ht="36" customHeight="1" s="2">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" s="14" t="inlineStr">
+        <is>
+          <t>点击"我的"按钮，进入我的页面</t>
+        </is>
+      </c>
+      <c r="C7" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">检查click_history.json中的点击记录是否为 "点击'我的'按钮并进入我的页面" </t>
+        </is>
+      </c>
+      <c r="D7" s="14" t="inlineStr">
+        <is>
+          <t>check_click_profile()</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="n"/>
+    </row>
+    <row r="8" ht="33.6" customHeight="1" s="2">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>进入 "酒店" 页面，选择城市上海，得到酒店列表</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>检查search_params.json中的搜索记录是否包含{type:"hotel_search", city:"上海", list_shown:true}</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>check_hotel_search_chengdu()</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="n"/>
+    </row>
+    <row r="9" ht="48" customHeight="1" s="2">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>进入 "酒店" 页面，入住时间选择10月20日，退房时间选择10月21日，得到酒店列表</t>
+        </is>
+      </c>
+      <c r="C9" s="15" t="inlineStr">
+        <is>
+          <t>检查search_params.json中的搜索记录是否包含{type:"hotel_search", checkIn:"2025-10-20", checkOut:"2025-10-21", list_shown:true}</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>check_hotel_search_dates()</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="n"/>
+    </row>
+    <row r="10" ht="39.6" customHeight="1" s="2">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>进入 "酒店" 页面，选择间数1、成人数1、儿童数1，得到酒店列表</t>
+        </is>
+      </c>
+      <c r="C10" s="15" t="inlineStr">
+        <is>
+          <t>检查search_params.json中的搜索记录是否包含{type:"hotel_search", rooms:1, adults:1, children:1, list_shown:true}</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>check_hotel_search_guests()</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="n"/>
+    </row>
+    <row r="11" ht="43.8" customHeight="1" s="2">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>进入 "机票" 页面，选出发地 "广州"、目的地 "深圳"，得到航班列表</t>
+        </is>
+      </c>
+      <c r="C11" s="15" t="inlineStr">
+        <is>
+          <t>检查search_params.json中的搜索记录是否包含{type:"flight_search", from:"广州", to:"深圳", list_shown:true}</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>check_flight_search_gz_sz()</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="n"/>
+    </row>
+    <row r="12" ht="43.2" customHeight="1" s="2">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>进入 "机票" 页面，选择日期10月22日，得到航班列表</t>
+        </is>
+      </c>
+      <c r="C12" s="15" t="inlineStr">
+        <is>
+          <t>检查search_params.json中的搜索记录是否包含{type:"flight_search", date:"2025-10-22", list_shown:true}</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>check_flight_search_date()</t>
+        </is>
+      </c>
+      <c r="E12" s="6" t="n"/>
+    </row>
+    <row r="13" ht="35.4" customHeight="1" s="2">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>进入"机票"页面，选择公务/头等舱，得到航班列表</t>
+        </is>
+      </c>
+      <c r="C13" s="15" t="inlineStr">
+        <is>
+          <t>检查search_params.json中的搜索记录cabin字段是否为"公务/头等舱"，且list_shown:true</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>check_flight_search_cabin()</t>
+        </is>
+      </c>
+      <c r="E13" s="6" t="n"/>
+    </row>
+    <row r="14" ht="46.2" customHeight="1" s="2">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>进入 "火车票" 页面，选出发地 "北京"、目的地 "上海"，得到车次列表</t>
+        </is>
+      </c>
+      <c r="C14" s="15" t="inlineStr">
+        <is>
+          <t>检查search_params.json中的搜索记录是否包含{type:"train_search", from:"北京", to:"上海", list_shown:true}</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>check_train_search_bj_sh()</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="n"/>
+    </row>
+    <row r="15" ht="46.8" customHeight="1" s="2">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>进入 "火车票" 页面，选择日期10月24日，得到车次列表</t>
+        </is>
+      </c>
+      <c r="C15" s="15" t="inlineStr">
+        <is>
+          <t>检查search_params.json中的搜索记录是否包含{type:"train_search", date:"2025-10-24", list_shown:true}</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>check_train_search_date()</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="n"/>
+    </row>
+    <row r="16" ht="44.4" customHeight="1" s="2">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>进入 "火车票" 页面，选择学生票，得到车次列表</t>
+        </is>
+      </c>
+      <c r="C16" s="15" t="inlineStr">
+        <is>
+          <t>检查search_params.json中的搜索记录是否包含{type:"train_search", ticketType:"学生票", list_shown:true}</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>check_train_search_student()</t>
+        </is>
+      </c>
+      <c r="E16" s="6" t="n"/>
+    </row>
+    <row r="17" ht="52.8" customHeight="1" s="2">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>进入 "酒店" 页面，城市选北京，入住时间选择10月22日，退房时间选择10月23日，得到酒店列表</t>
+        </is>
+      </c>
+      <c r="C17" s="15" t="inlineStr">
+        <is>
+          <t>检查search_params.json中的搜索记录是否包含{type:"hotel_search", city:"北京", checkIn:"2025-10-22", checkOut:"2025-10-23", list_shown:true}</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>check_hotel_search_beijing()</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="n"/>
+    </row>
+    <row r="18" ht="52.2" customHeight="1" s="2">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>进入 "酒店" 页面，城市选上海，入住时间今天，退房时间明天，间数选择2，成人数选择2，儿童数选择0，得到酒店列表</t>
+        </is>
+      </c>
+      <c r="C18" s="15" t="inlineStr">
+        <is>
+          <t>检查search_params.json中的搜索记录是否包含{type:"hotel_search", city:"上海", rooms:2, adults:2, children:0, list_shown:true}（日期动态）</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>check_hotel_search_shanghai()</t>
+        </is>
+      </c>
+      <c r="E18" s="6" t="n"/>
+    </row>
+    <row r="19" ht="45.6" customHeight="1" s="2">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>进入 "机票" 页面，选出发地 "北京"、目的地 "深圳"，选择日期10月25号，得到航班列表</t>
+        </is>
+      </c>
+      <c r="C19" s="15" t="inlineStr">
+        <is>
+          <t>检查search_params.json中的搜索记录是否包含{type:"flight_search", from:"北京", to:"深圳", date:"2025-10-25", list_shown:true}</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>check_flight_search_bj_sz()</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="n"/>
+    </row>
+    <row r="20" ht="56.4" customHeight="1" s="2">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>进入 "机票" 页面，选出发地 "成都"、目的地 "上海"，选择日期10月20号，选头等舱，得到航班列表</t>
+        </is>
+      </c>
+      <c r="C20" s="15" t="inlineStr">
+        <is>
+          <t>检查search_params.json中的搜索记录是否包含{type:"flight_search", from:"成都", to:"上海", date:"2025-10-20", cabin:"公务/头等舱", list_shown:true}</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>check_flight_search_cd_sh_first()</t>
+        </is>
+      </c>
+      <c r="E20" s="6" t="n"/>
+    </row>
+    <row r="21" ht="57" customHeight="1" s="2">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>进入 "火车票" 页面，选出发地 "北京"、目的地 "上海"，选择日期10月22日，得到车次列表</t>
+        </is>
+      </c>
+      <c r="C21" s="15" t="inlineStr">
+        <is>
+          <t>检查search_params.json中的搜索记录是否包含{type:"train_search", from:"北京", to:"上海", date:"2025-10-22", list_shown:true}</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>check_train_search_bj_sh_date()</t>
+        </is>
+      </c>
+      <c r="E21" s="6" t="n"/>
+    </row>
+    <row r="22" ht="59.4" customHeight="1" s="2">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>进入 "火车票" 页面，选出发地 "杭州"、目的地 "深圳"，选择日期10月24日，选择学生票，得到车次列表</t>
+        </is>
+      </c>
+      <c r="C22" s="15" t="inlineStr">
+        <is>
+          <t>检查search_params.json中的搜索记录是否包含{type:"train_search", from:"杭州", to:"深圳", date:"2025-10-24", ticketType:"学生票", list_shown:true}</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>check_train_search_cs_tj_student()</t>
+        </is>
+      </c>
+      <c r="E22" s="6" t="n"/>
+    </row>
+    <row r="23" ht="133.2" customHeight="1" s="2">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>进入 "酒店" 页面，为我筛选北京评分最高的前 3 家酒店的平均价</t>
+        </is>
+      </c>
+      <c r="C23" s="15" t="inlineStr">
+        <is>
+          <t>1. 计算真实答案：从北京酒店数据中按评分降序排序，取前3家，计算这3家的平均价格
+   - 按评分排序：旭阳趣舍(4.8, ¥65) → 一家人(4.7, ¥104) → 希尔顿(4.6, ¥380)
+   - 平均价格：(65 + 104 + 380) / 3 = 183元
+2. 智能体答案：接收智能体返回的平均价格（可以是数字、字符串或包含价格的字典）
+3. 对比判断：允许±1元的误差（考虑四舍五入）
+4. 辅助检查：也可从search_params.json检查是否记录了{type:"hotel_search", city:"北京", sortBy:"rating", limit:3, calculation:"average_price"}</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>check_hotel_search_beijing_top3_avg_price(agent_answer)</t>
+        </is>
+      </c>
+      <c r="E23" s="6" t="n"/>
+    </row>
+    <row r="24" ht="134.4" customHeight="1" s="2">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>进入 “酒店” 页面，为我检索上海所有酒店中最低的价格</t>
+        </is>
+      </c>
+      <c r="C24" s="15" t="inlineStr">
+        <is>
+          <t>1. 计算真实答案：从上海酒店数据中找出所有酒店的最低价格
+   - 所有酒店价格：180, 220, 298, 350, 888
+   - 最低价格：180元（对应上海田子坊创意民宿）
+2. 智能体答案：接收智能体返回的价格（可以是数字、字符串或包含价格的字典）
+3. 对比判断：精确匹配，必须等于180元
+4. 辅助检查：也可从search_params.json检查是否记录了{type:"hotel_search", city:"上海", calculation:"min_price"}</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>check_hotel_search_shanghai_min_price(agent_answer)</t>
+        </is>
+      </c>
+      <c r="E24" s="6" t="n"/>
+    </row>
+    <row r="25" ht="194.4" customHeight="1" s="2">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>进入 "机票" 页面，查10月21日从北京飞广州的机票，统计下最便宜的 3 趟航班的平均价格。</t>
+        </is>
+      </c>
+      <c r="C25" s="15" t="inlineStr">
+        <is>
+          <t>1. 计算真实答案：
+   - 根据日期计算基础价格：dayPrice = 380 - 10 = 370（10月21日是周一）
+   - 生成北京到广州的所有航班数据（2个经济舱 + 2个公务/头等舱）
+   - 按价格排序，取最便宜的3趟：370, 395, 1110
+   - 计算平均价格：(370 + 395 + 1110) / 3 = 625元
+2. 智能��答案：接收智能体返回的平均价格（可以是数字、字符串或包含平均价格的字典）
+3. 对比判断：允许±1元的误差（考虑四舍五入）
+4. 辅助检查：也可从search_params.json检查是否记录了{type:"flight_search", from:"北京", to:"广州", date:"2025-10-21", calculation:"average_price_top3", list_shown:true}</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>check_flight_search_price_avg(agent_answer)</t>
+        </is>
+      </c>
+      <c r="E25" s="6" t="n"/>
+    </row>
+    <row r="26" ht="178.8" customHeight="1" s="2">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>进入 “火车票” 页面，查10月22日广州到杭州下午2点到5点的车次，检索这些车次中最高的价格。</t>
+        </is>
+      </c>
+      <c r="C26" s="15" t="inlineStr">
+        <is>
+          <t>1. 计算真实答案：
+   - 从trains_list.json加载火车票数据
+   - 筛选广州到杭州10月22日下午2点到5点（14:00-17:00）的车次
+   - 找出这些车次中所有座位类型的价格，取最高价格
+   - 真实答案：K535车次的商务座 1410.0元（如果数据不同，以实际为准）
+2. 智能体答案：接收智能体返回的价格（可以是数字、字符串或包含价格的字典）
+3. 对比判断：允许±1元的误差
+4. 辅助检查：也可从search_params.json检查是否记录了{type:"train_search", from:"广州", to:"杭州", date:"2025-10-22", timeRange:"14:00-17:00", calculation:"max_price"}</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>check_train_search_max_price(agent_answer)</t>
+        </is>
+      </c>
+      <c r="E26" s="6" t="n"/>
+    </row>
+    <row r="27" ht="61.2" customHeight="1" s="2">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>选上海的酒店，入住日期选10月22日，退房10月25日，客房数和入住人数默认，得到酒店列表后，点击第一个酒店，然后选择第一个房型预订</t>
+        </is>
+      </c>
+      <c r="C27" s="15" t="inlineStr">
+        <is>
+          <t>检查booking_history.json中的预订记录是否包含{type:"hotel_booking", city:"上海", checkIn:"2025-10-22", checkOut:"2025-10-25", hotelIndex:0, roomIndex:0}</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>check_booking_hotel_shanghai()</t>
+        </is>
+      </c>
+      <c r="E27" s="6" t="n"/>
+    </row>
+    <row r="28" ht="39.6" customHeight="1" s="2">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>进入 "机票" 页面，选出发地 "武汉"、目的地 "深圳"，选择日期11月10号，舱型默认，得到航班列表后，预订第一架航班</t>
+        </is>
+      </c>
+      <c r="C28" s="15" t="inlineStr">
+        <is>
+          <t>检查booking_history.json中的预订记录是否包含{type:"flight_booking", from:"武汉", to:"深圳", date:"2025-11-10", flightIndex:0}</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>check_booking_flight_wh_sz()</t>
+        </is>
+      </c>
+      <c r="E28" s="6" t="n"/>
+    </row>
+    <row r="29" ht="57.6" customHeight="1" s="2">
+      <c r="A29" s="4" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>进入 "火车票" 页面，选出发地 "北京"、目的地 "上海"，选择日期10月23日，得到车次列表后，预订第一班车次</t>
+        </is>
+      </c>
+      <c r="C29" s="15" t="inlineStr">
+        <is>
+          <t>检查booking_history.json中的预订记录是否包含{type:"train_booking", from:"北京", to:"上海", date:"2025-10-23", trainIndex:0}</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>check_booking_train_bj_sh()</t>
+        </is>
+      </c>
+      <c r="E29" s="7" t="n"/>
+    </row>
+    <row r="30" ht="52.8" customHeight="1" s="2">
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>选上海的酒店，入住日期选10月21日，退房10月25日，客房数和入住人数默认，得到酒店列表后，选择价格最低的酒店，然后选择最便宜的房型预订</t>
+        </is>
+      </c>
+      <c r="C30" s="15" t="inlineStr">
+        <is>
+          <t>检查booking_history.json中的预订记录是否包含{type:"hotel_booking", city:"上海", checkIn:"2025-10-21", checkOut:"2025-10-25", selection:"cheapest"}</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>check_booking_hotel_cheapest()</t>
+        </is>
+      </c>
+      <c r="E30" s="6" t="n"/>
+    </row>
+    <row r="31" ht="45" customHeight="1" s="2">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>进入 "火车票" 页面，选出发地 "北京"、目的地 "上海"，选择日期10月20日，得到车次列表后，预订下午3点到下午4点的任意一班车次</t>
+        </is>
+      </c>
+      <c r="C31" s="15" t="inlineStr">
+        <is>
+          <t>检查booking_history.json中的预订记录是否包含{type:"train_booking", from:"北京", to:"上海", date:"2025-10-20", timeRange:"15:00-16:00"}</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>check_booking_train_time()</t>
+        </is>
+      </c>
+      <c r="E31" s="6" t="n"/>
+    </row>
+    <row r="32" ht="52.8" customHeight="1" s="2">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>先订北京飞上海的机票（10月20日，经济舱），再订上海的酒店（入住10月20日，退房10月21日），最后订上海回北京的火车票（10月21日）</t>
+        </is>
+      </c>
+      <c r="C32" s="15" t="inlineStr">
+        <is>
+          <t>检查booking_history.json中是否包含type:"multi_booking"且有3个步骤：机票(北京-&gt;上海)、酒店(上海)、火车票(上海-&gt;北京)，并验证顺序</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t>check_booking_multi_step()</t>
+        </is>
+      </c>
+      <c r="E32" s="6" t="n"/>
+    </row>
+    <row r="33" ht="66" customHeight="1" s="2">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>订 10 月 20 日从杭州到北京的最快火车票（5 小时内达），住北京中关村亚朵酒店两晚（10.20 - 10.22），再订 10.22 北京回杭州的最晚高铁，计算所有费用后判断 2000 元够不够。</t>
+        </is>
+      </c>
+      <c r="C33" s="15" t="inlineStr">
+        <is>
+          <t>检查booking_history.json中是否包含type:"complex_booking"且有：火车票(杭州-&gt;北京,&lt;=5h)、酒店(中关村亚朵,2晚)、火车票(北京-&gt;杭州,最晚)、totalCost、budgetCheck:2000</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>check_booking_complex_budget()</t>
+        </is>
+      </c>
+      <c r="E33" s="6" t="n"/>
+    </row>
+    <row r="34" ht="61.8" customHeight="1" s="2">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>订 5 张 10 月 20 日深圳到北京的火车票（要求 5 小时内到达）</t>
+        </is>
+      </c>
+      <c r="C34" s="15" t="inlineStr">
+        <is>
+          <t>检查booking_history.json中是否包含{type:"batch_booking", bookingType:"train", from:"深圳", to:"北京", date:"2025-10-20", quantity:5, constraint:"duration&lt;=5h"}</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
+          <t>check_booking_batch_train()</t>
+        </is>
+      </c>
+      <c r="E34" s="6" t="n"/>
+    </row>
+    <row r="35" ht="52.8" customHeight="1" s="2">
+      <c r="A35" s="4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>订 5 张 10 月 20 日广州到北京的最早火车票，再订北京 3 家不同的酒店</t>
+        </is>
+      </c>
+      <c r="C35" s="15" t="inlineStr">
+        <is>
+          <t>检查booking_history.json中是否包含type:"complex_batch_booking"且有：trainBooking(5张,最早) 和 hotelBooking(3家,不同)</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>check_booking_complex_batch()</t>
+        </is>
+      </c>
+      <c r="E35" s="7" t="n"/>
+    </row>
+    <row r="36" ht="65.40000000000001" customHeight="1" s="2">
+      <c r="A36" s="4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>订 10 月 15 日北京飞上海的 6 张经济舱机票</t>
+        </is>
+      </c>
+      <c r="C36" s="15" t="inlineStr">
+        <is>
+          <t>检查booking_history.json中是否包含{type:"batch_booking", bookingType:"flight", from:"北京", to:"上海", date:"2025-10-15", cabin:"经济舱", quantity:6}</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>check_booking_batch_flight()</t>
+        </is>
+      </c>
+      <c r="E36" s="6" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="n"/>
+      <c r="B37" s="9" t="n"/>
+      <c r="C37" s="9" t="n"/>
+      <c r="D37" s="10" t="n"/>
+      <c r="E37" s="6" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>